--- a/DATA_goal/Junction_Flooding_447.xlsx
+++ b/DATA_goal/Junction_Flooding_447.xlsx
@@ -445,7 +445,7 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
@@ -655,103 +655,103 @@
         <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.73</v>
+        <v>37.26</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.35</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.8</v>
+        <v>38.03</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.75</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.54</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>4.39</v>
+        <v>43.9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_447.xlsx
+++ b/DATA_goal/Junction_Flooding_447.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45128.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45128.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.21</v>
+        <v>22.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.3</v>
+        <v>16.378</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.963</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.35</v>
+        <v>49.095</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.58</v>
+        <v>39.376</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.29</v>
+        <v>17.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.19</v>
+        <v>65.952</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.16</v>
+        <v>27.341</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.69</v>
+        <v>11.927</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.01</v>
+        <v>17.56</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.43</v>
+        <v>19.612</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.05</v>
+        <v>20.857</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.58</v>
+        <v>5.676</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.62</v>
+        <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.18</v>
+        <v>24.975</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2</v>
+        <v>15.139</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.48</v>
+        <v>1.502</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>1.201</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.03</v>
+        <v>261.645</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.75</v>
+        <v>49.388</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.27</v>
+        <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.57</v>
+        <v>32.863</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.46</v>
+        <v>17.177</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.39</v>
+        <v>2.938</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.23</v>
+        <v>32.822</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.26</v>
+        <v>14.407</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.17</v>
+        <v>12.891</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.78</v>
+        <v>15.184</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.61</v>
+        <v>20.441</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.07</v>
+        <v>60.346</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.32</v>
+        <v>9.081</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.15</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45128.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.56</v>
+        <v>10.954</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.5</v>
+        <v>7.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>1.121</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>24.048</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.58</v>
+        <v>19.043</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.93</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.54</v>
+        <v>36.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.94</v>
+        <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.76</v>
+        <v>5.799</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.47</v>
+        <v>8.416</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.8</v>
+        <v>9.605</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.29</v>
+        <v>10.261</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.5</v>
+        <v>2.78</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.14</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.78</v>
+        <v>12.194</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.45</v>
+        <v>7.533</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.95</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.653</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.9</v>
+        <v>124.311</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.02</v>
+        <v>24.307</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.41</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.29</v>
+        <v>16.06</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.03</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.44</v>
+        <v>1.544</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.29</v>
+        <v>17.591</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.66</v>
+        <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.49</v>
+        <v>6.371</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.61</v>
+        <v>7.492</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.01</v>
+        <v>9.987</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.34</v>
+        <v>34.003</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.6</v>
+        <v>4.386</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.69</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45128.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.58</v>
+        <v>14.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.99</v>
+        <v>10.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.79</v>
+        <v>32.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.18</v>
+        <v>26.16</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.54</v>
+        <v>11.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.7</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.66</v>
+        <v>7.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.93</v>
+        <v>11.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.11</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.42</v>
+        <v>13.82</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.92</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.7</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.7</v>
+        <v>16.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.28</v>
+        <v>9.94</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.12</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.05</v>
+        <v>32.57</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.94</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.59</v>
+        <v>21.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.66</v>
+        <v>11.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.25</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.26</v>
+        <v>21.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.48</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.41</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.13</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.23</v>
+        <v>13.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>40.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.85</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_447.xlsx
+++ b/DATA_goal/Junction_Flooding_447.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45128.50694444445</v>
+        <v>44782.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.798</v>
+        <v>4.639</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.137</v>
+        <v>3.949</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.527</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.879</v>
+        <v>5.682</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.444</v>
+        <v>5.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.657</v>
+        <v>1.404</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.967</v>
+        <v>7.057</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.87</v>
+        <v>3.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.742</v>
+        <v>2.974</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.011</v>
+        <v>2.59</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.733</v>
+        <v>3.719</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.516</v>
+        <v>4.974</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.497</v>
+        <v>2.211</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.903</v>
+        <v>2.2</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.966</v>
+        <v>3.582</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.704000000000001</v>
+        <v>1.706</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.059</v>
+        <v>0.605</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.672</v>
+        <v>0.024</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.575</v>
+        <v>37.258</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.182</v>
+        <v>6.598</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.064</v>
+        <v>4.255</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.331</v>
+        <v>5.158</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>1.722</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.377</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.102</v>
+        <v>3.036</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>1.789</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.15</v>
+        <v>1.745</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.673999999999999</v>
+        <v>5.904</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.058</v>
+        <v>3.659</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.072</v>
+        <v>3.978</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.934</v>
+        <v>5.202</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.407</v>
+        <v>0.995</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.581</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45128.51388888889</v>
+        <v>44782.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.468</v>
+        <v>4.208</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.378</v>
+        <v>3.296</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.963</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.095</v>
+        <v>7.349</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.376</v>
+        <v>6.58</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.56</v>
+        <v>2.293</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>65.952</v>
+        <v>10.195</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.341</v>
+        <v>4.159</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.927</v>
+        <v>2.688</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.56</v>
+        <v>3.011</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.612</v>
+        <v>3.427</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.857</v>
+        <v>4.048</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.676</v>
+        <v>1.576</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.67</v>
+        <v>2.625</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.975</v>
+        <v>4.181</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.139</v>
+        <v>2.003</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.502</v>
+        <v>0.477</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.201</v>
+        <v>0.017</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.645</v>
+        <v>38.025</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.388</v>
+        <v>7.748</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.31</v>
+        <v>3.268</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.863</v>
+        <v>5.573</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.177</v>
+        <v>2.456</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.938</v>
+        <v>0.391</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.822</v>
+        <v>5.225</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.407</v>
+        <v>2.256</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.891</v>
+        <v>2.166</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.184</v>
+        <v>3.777</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.441</v>
+        <v>3.605</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.198</v>
+        <v>1.327</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>60.346</v>
+        <v>9.071999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.081</v>
+        <v>1.324</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.392</v>
+        <v>3.146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45128.52083333334</v>
+        <v>44782.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.954</v>
+        <v>4.559</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.94</v>
+        <v>3.501</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.121</v>
+        <v>0.027</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.048</v>
+        <v>8.797000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.043</v>
+        <v>7.585</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.537000000000001</v>
+        <v>2.931</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.99</v>
+        <v>12.535</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.38</v>
+        <v>4.943</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.799</v>
+        <v>2.764</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.416</v>
+        <v>3.465</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.605</v>
+        <v>3.804</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.261</v>
+        <v>4.286</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>1.497</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.647</v>
+        <v>3.136</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.194</v>
+        <v>4.784</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.533</v>
+        <v>2.447</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.373</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.653</v>
+        <v>0.039</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.311</v>
+        <v>43.902</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.307</v>
+        <v>9.02</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.982</v>
+        <v>3.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.06</v>
+        <v>6.293</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.364000000000001</v>
+        <v>3.028</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.544</v>
+        <v>0.442</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.591</v>
+        <v>6.292</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.05</v>
+        <v>2.663</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.371</v>
+        <v>2.485</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.492</v>
+        <v>3.614</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.987</v>
+        <v>4.007</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.746</v>
+        <v>0.796</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.003</v>
+        <v>11.339</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.386</v>
+        <v>1.604</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.978999999999999</v>
+        <v>3.687</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45128.52777777778</v>
+        <v>44782.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.81</v>
+        <v>2.576</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.93</v>
+        <v>1.988</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.04</v>
+        <v>0.002</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.41</v>
+        <v>4.786</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.16</v>
+        <v>4.181</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.59</v>
+        <v>1.543</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45</v>
+        <v>8.712</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>2.703</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.93</v>
+        <v>1.655</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.66</v>
+        <v>1.925</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.98</v>
+        <v>2.113</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.82</v>
+        <v>2.421</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.74</v>
+        <v>0.922</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>1.698</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.51</v>
+        <v>2.705</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.94</v>
+        <v>1.277</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.286</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.003</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.07</v>
+        <v>21.117</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.57</v>
+        <v>5.053</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>1.937</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.75</v>
+        <v>3.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.41</v>
+        <v>1.659</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.246</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.87</v>
+        <v>4.261</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>1.476</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.48</v>
+        <v>1.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>2.128</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.57</v>
+        <v>2.227</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>8.045999999999999</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>2.007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>40.9</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>13.45</v>
+      <c r="Z6" s="4" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>4.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_447.xlsx
+++ b/DATA_goal/Junction_Flooding_447.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.84027777778</v>
+        <v>45128.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.639</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.949</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.682</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.404</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.057</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.269</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.974</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.719</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.974</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.211</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.582</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.706</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.605</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.024</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.258</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.598</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.255</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.158</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.722</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.377</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.036</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.789</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.745</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.904</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.659</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.978</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.202</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.995</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.84722222222</v>
+        <v>45128.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.208</v>
+        <v>22.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.296</v>
+        <v>16.378</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.963</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.349</v>
+        <v>49.095</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.58</v>
+        <v>39.376</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.293</v>
+        <v>17.56</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.195</v>
+        <v>65.952</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.159</v>
+        <v>27.341</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.688</v>
+        <v>11.927</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.011</v>
+        <v>17.56</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.427</v>
+        <v>19.612</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.048</v>
+        <v>20.857</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.576</v>
+        <v>5.676</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.625</v>
+        <v>17.67</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.181</v>
+        <v>24.975</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.003</v>
+        <v>15.139</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.477</v>
+        <v>1.502</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.017</v>
+        <v>1.201</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.025</v>
+        <v>261.645</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.748</v>
+        <v>49.388</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.268</v>
+        <v>16.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.573</v>
+        <v>32.863</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.456</v>
+        <v>17.177</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.391</v>
+        <v>2.938</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.225</v>
+        <v>32.822</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.256</v>
+        <v>14.407</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.166</v>
+        <v>12.891</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.777</v>
+        <v>15.184</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.605</v>
+        <v>20.441</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.327</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.071999999999999</v>
+        <v>60.346</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.324</v>
+        <v>9.081</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.146</v>
+        <v>20.392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.85416666666</v>
+        <v>45128.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.559</v>
+        <v>10.954</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.501</v>
+        <v>7.94</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.027</v>
+        <v>1.121</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.797000000000001</v>
+        <v>24.048</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.585</v>
+        <v>19.043</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.931</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.535</v>
+        <v>36.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>4.943</v>
+        <v>13.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.764</v>
+        <v>5.799</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.465</v>
+        <v>8.416</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.804</v>
+        <v>9.605</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.286</v>
+        <v>10.261</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.497</v>
+        <v>2.78</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.136</v>
+        <v>8.647</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.784</v>
+        <v>12.194</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.447</v>
+        <v>7.533</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.373</v>
+        <v>0.95</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.039</v>
+        <v>0.653</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.902</v>
+        <v>124.311</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.02</v>
+        <v>24.307</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.411</v>
+        <v>7.982</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.293</v>
+        <v>16.06</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.028</v>
+        <v>8.364000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.442</v>
+        <v>1.544</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.292</v>
+        <v>17.591</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.663</v>
+        <v>7.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.485</v>
+        <v>6.371</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.614</v>
+        <v>7.492</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.007</v>
+        <v>9.987</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.796</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.339</v>
+        <v>34.003</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.604</v>
+        <v>4.386</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.687</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.86111111111</v>
+        <v>45128.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.576</v>
+        <v>14.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.988</v>
+        <v>10.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.002</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.786</v>
+        <v>32.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.181</v>
+        <v>26.16</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.543</v>
+        <v>11.59</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>8.712</v>
+        <v>45</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.703</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.655</v>
+        <v>7.93</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.925</v>
+        <v>11.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.113</v>
+        <v>12.98</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.421</v>
+        <v>13.82</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.922</v>
+        <v>3.74</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.698</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.705</v>
+        <v>16.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.277</v>
+        <v>9.94</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.286</v>
+        <v>0.77</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.003</v>
+        <v>0.67</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.117</v>
+        <v>170.07</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.053</v>
+        <v>32.57</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.937</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.59</v>
+        <v>21.75</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.659</v>
+        <v>11.41</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.246</v>
+        <v>1.84</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.261</v>
+        <v>21.87</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.476</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.41</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.128</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.227</v>
+        <v>13.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.045999999999999</v>
+        <v>40.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.852</v>
+        <v>6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.007</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>4.64</v>
+        <v>13.45</v>
       </c>
     </row>
   </sheetData>
